--- a/spreadsheet/macrofree/avs_checklist.en.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.en.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -976,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1094,27 +1059,23 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="inlineStr">
-        <is>
-          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
-        </is>
-      </c>
+          <t>Ensure ADDS domain controller(s) are deployed in the identity subscription in native Azure</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,17 +1084,13 @@
         </is>
       </c>
       <c r="G8" s="21" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>976f32a7-30d1-6caa-c2a0-207fdc26571b</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1144,24 +1101,20 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use MABS as your backup solution</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Microsoft backup service</t>
-        </is>
-      </c>
+          <t>Ensure ADDS sites and services is configured to keep authentication requests from Azure-based resources (including Azure VMware Solution) local to Azure</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1173,17 +1126,13 @@
         </is>
       </c>
       <c r="G9" s="21" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H9" s="15" t="n"/>
       <c r="I9" s="15" t="n"/>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>fc8af7a1-c724-e255-c18d-4ca22a6f27f0</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1194,27 +1143,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>Best practice - this is Backup, not disaster recovery</t>
-        </is>
-      </c>
+          <t>Ensure that vCenter is connected to ADDS to enable authentication based on 'named user accounts'</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1223,17 +1168,13 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="inlineStr">
-        <is>
-          <t>Best practice to deploy backup in the same region as your AVS deployment</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>be28860f-3d29-a79a-1a0e-36f1b23b36ae</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1244,24 +1185,20 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Preferably deploy MABS outside of the SDDC as native Azure IaaS</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Best practice - in case AVS is unavailable</t>
-        </is>
-      </c>
+          <t>Ensure that the connection from vCenter to ADDS is using a secure protocol (LDAPS)</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1273,17 +1210,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4d2f79a5-4ccf-0dfc-557c-49619b99a540</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1294,24 +1227,20 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Escalation process with Microsoft in the event of a regional DR</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
-        </is>
-      </c>
+          <t>CloudAdmin account in vCenter IdP is used only as an emergency account (break-glass)</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1323,17 +1252,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>Will Disaster Recovery Site Recovery, HCX Disaster Recovery, SRM or back tools be used?</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>ff431c40-962c-5182-d536-0c2f0c4ce9e0</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1344,27 +1269,23 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Use VMware Site Recovery Manager when both sites are Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>Compare SRM with HCX</t>
-        </is>
-      </c>
+          <t>Ensure that NSX-Manager is  integrated with an external Identity provider</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1373,17 +1294,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/disaster-recovery-using-vmware-site-recovery-manager</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>f379436d-3051-daa0-01fb-dc4e0e04d677</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,24 +1311,20 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>Recovery into Azure instead of Vmware solution</t>
-        </is>
-      </c>
+          <t>Has an RBAC model been created for use within VMware vSphere</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1423,17 +1336,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>367f71d8-3cf6-51a0-91a5-3db3d570cc19</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,24 +1353,20 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use Automated recovery plans with either of the Disaster solutions,</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>Avoid manual tasks as much as possible</t>
-        </is>
-      </c>
+          <t>RBAC permissions should be granted on ADDS groups and not on specific users</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1473,17 +1378,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>ee02ada0-1887-bb3a-b84c-423f45a09ef9</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,27 +1395,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configure a secondary disaster recovery environment</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>Any other datacenter in the same region</t>
-        </is>
-      </c>
+          <t>RBAC permissions on the Azure VMware Solution resource in Azure are 'locked down' to a limited set of owners only</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1523,17 +1420,13 @@
         </is>
       </c>
       <c r="G16" s="21" t="n"/>
-      <c r="H16" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/connect-multiple-private-clouds-same-region</t>
-        </is>
-      </c>
+      <c r="H16" s="15" t="n"/>
       <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>0c2b74e5-9c28-780d-1df3-12d3de4aaa76</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,27 +1437,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Assign IP ranges unique to each region</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
-        </is>
-      </c>
+          <t>Is the correct Azure VMware Solution connectivity model selected for the customer use case at hand</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1575,7 +1464,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1583,7 +1472,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>c2a34ec4-2933-4e6c-dc36-e20e67abbe3f</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,27 +1483,23 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use Global Reach between DR regions</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>ExpressRoute Global Reach can be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or  routing must be done through network virtual appliances?</t>
-        </is>
-      </c>
+          <t>Ensure ExpressRoute or VPN connections from on-premises to Azure are monitored using 'connection monitor'</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,17 +1508,13 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>This depends if you have multiple AVS Private Clouds. If so and they are in the same region then use AVS Interconnect. If they are in separate regions then use ExpressRoute Global Reach.</t>
-        </is>
-      </c>
+      <c r="H18" s="15" t="n"/>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>b44fb6ec-bfc1-3a8e-dba2-ca97f0991d2c</t>
+          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,24 +1525,20 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Key Vault with in-guest encryption </t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
-        </is>
-      </c>
+          <t>Ensure a connection monitor is created from an Azure native resource to an Azure VMware Solution virtual machine to monitor the Azure VMware Solution back-end ExpressRoute connection</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1673,17 +1550,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>General recommendation for storing encryption keys.</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>70cfbddc-d3d4-9188-77c8-1cabaefef646</t>
+          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1694,24 +1567,20 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use in-guest encryption</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
-        </is>
-      </c>
+          <t>Ensure a connection monitor is created from an on-premises resource to an Azure VMware Solution virtual machine to monitor end-2-end connectivity</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1723,17 +1592,13 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#data-at-rest-encryption</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>c1a81638-18df-0ce9-a73a-4b9a8a8dd392</t>
+          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,27 +1609,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Routing</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Keyvault use for secrets</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
-        </is>
-      </c>
+          <t>When route server is used, ensure no more then 200 routes are propagated from route server to ExR gateway to on-premises (ARS limit). Important when using MoN</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1773,17 +1634,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/key-vault/general/authentication</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8d0a8f51-8d35-19cd-c2fe-4e3512fb467e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1794,27 +1651,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Extended support</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure extended security update support </t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Older OS security patching  configured for workloads running on Azure VMware Solution are eligible for ESU</t>
-        </is>
-      </c>
+          <t>Is Privileged Identity Management implemented for roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,17 +1676,13 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/windows-server/get-started/extended-security-updates-deploy</t>
-        </is>
-      </c>
+      <c r="H22" s="15" t="n"/>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4f8b20e9-a2a1-f80f-af9b-8aa3b26dca08</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1844,27 +1693,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Investigation</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enable Azure Sentinel or 3rd party SIEM </t>
-        </is>
-      </c>
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>Use a SIEM/SOAR</t>
-        </is>
-      </c>
+          <t>Is Privileged Identity Management audit reporting implemented for the Azure VMware Solution PIM roles</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1873,17 +1718,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/sentinel/overview</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bb22fec-4d00-3b95-7136-e225d0f5c63a</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1894,27 +1735,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Direct (no vWAN, no H&amp;S)</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Global Reach to ExR circuit - no Azure resources</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>An ExR Global Reach connection will be established to the ExR circuit, no other connections</t>
-        </is>
-      </c>
+          <t>Limit use of CloudAdmin account to emergency access only</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1923,17 +1760,13 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H24" s="15" t="n"/>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>a2c12df2-07fa-3edd-2cec-fda0b55fb952</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1944,24 +1777,20 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Connect to Azure using ExR</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="inlineStr">
-        <is>
-          <t>Use ExR to connect on-premises (other) location to Azure</t>
-        </is>
-      </c>
+          <t>Create custom RBAC roles in vCenter to implement a least-privilege model inside vCenter</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1973,17 +1802,13 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>f62ce162-ba5a-429d-674e-fafa1af5f706</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1994,24 +1819,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Bandwidth sizing</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>Use the migration assesment tool and timeline to determine bandwidth required</t>
-        </is>
-      </c>
+          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2023,17 +1844,13 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-introduction</t>
-        </is>
-      </c>
+      <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>cf01c73b-1247-0a7a-740c-e1ea29bda340</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2044,27 +1861,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traffic routing </t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>What traffic is routed through a firewall, what goes directly into Azure</t>
-        </is>
-      </c>
+          <t>Use a centralized identity provider to be used for workloads (VM's) running on Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2073,16 +1886,12 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>aab216ee-8941-315e-eada-c7e1f2243bd1</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2093,24 +1902,20 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Global Reach </t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>AVS to ExR circuit, no traffic inspection</t>
-        </is>
-      </c>
+          <t>Is East-West traffic filtering implemented within NSX-T</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2122,16 +1927,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1f956e45-f62d-5c95-3a95-3bab718907f8</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,27 +1943,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>vNet  name &amp; address space</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>Name of the vNet and a unique address space /24 minimum</t>
-        </is>
-      </c>
+          <t>Workloads on Azure VMware Solution are not directly exposed to the internet. Traffic is filtered and inspected by Azure Application Gateway, Azure Firewall or 3rd party solutions</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2171,16 +1968,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/quick-create-portal</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>91f7a87b-21ac-d712-959c-8df2ba034253</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2191,27 +1984,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Gateway subnet</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>Subnet must be called GatewaySubnet</t>
-        </is>
-      </c>
+          <t>Auditing and logging is implemented for inbound internet requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2220,16 +2009,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>58a027e2-f37f-b540-45d5-e44843aba26b</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2240,24 +2025,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>VPN Gateway</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Create a VPN gateway on the hub Gateway subnet</t>
-        </is>
-      </c>
+          <t>Session monitoring is implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2269,16 +2050,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>d4806549-0913-3e79-b580-ac2d3706e65a</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2289,24 +2066,20 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ExR Gateway</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>Create an ExR Gateway in the hub Gateway subnet.</t>
-        </is>
-      </c>
+          <t>Is DDoS standard protection enabled on ExR/VPN Gateway subnet in Azure</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2318,17 +2091,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>864d7a8b-7016-c769-a717-61af6bfb73d2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2339,24 +2108,20 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Egress point</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>How will Internet traffic be routes, Az Firewall, NVA, Secure Hub, On-Premises firewall?</t>
-        </is>
-      </c>
+          <t>Use a dedicated privileged access workstation (PAW) to manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2368,17 +2133,13 @@
         </is>
       </c>
       <c r="G33" s="21" t="n"/>
-      <c r="H33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/enable-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cc2e11b9-7911-7da1-458c-d7fcef794aad</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2389,24 +2150,20 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Remote connectivity to AVS</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>Allow remote connectivity to AVS via the portal, specifically to vCenter, NSX-T and HCX</t>
-        </is>
-      </c>
+          <t>Enable Advanced Threat Detection (Microsoft Defender for Cloud aka ASC) for workloads running on Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2418,17 +2175,13 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
-        </is>
-      </c>
+      <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>71e68ce3-982e-5e56-0191-01100ad0e66f</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2439,24 +2192,20 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Configure a jumbox and Azure Bastion</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Name the jumpbox and identify the subnet where it will be hosted</t>
-        </is>
-      </c>
+          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2468,17 +2217,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/tutorial-create-host-portal</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>6f8e93a2-44b1-bb1d-28a1-4d5b3c2ea857</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2489,27 +2234,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox &amp; Bastion</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Security measure allowing RDP access via the portal</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>Provides secure / seamless RDP/SSH connectivity to your vm's directly through the portal.</t>
-        </is>
-      </c>
+          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,17 +2259,13 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-groups-overview</t>
-        </is>
-      </c>
+      <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ba430d58-4541-085c-3641-068c00be9bc5</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2276,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Connect to Azure using a VPN</t>
-        </is>
-      </c>
-      <c r="D37" s="21" t="inlineStr">
-        <is>
-          <t>Using a VPN to connect to Azure to enable VMware communications (HCX) (not recommended)</t>
-        </is>
-      </c>
+          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2568,17 +2301,13 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-site-to-site-vpn-gateway</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9988598f-2a9f-6b12-9b46-488415ceb325</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,27 +2318,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Bandwidth sizing</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>Use the migration assesment tool and timeline to determine bandwidth required (eg 3rd party tool in link)</t>
-        </is>
-      </c>
+          <t>Ensure extended security update support is configured for workloads running on Azure VMware Solution (Azure VMware Solution is eligible for ESU)</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2618,17 +2343,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://www.omnicalculator.com/other/data-transfer#:~:text=To%20calculate%20the%20data%20transfer%20speed%3A%201%20Download,measured%20time%20to%20find%20the%20data%20transfer%20speed.</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>956ce5e9-a862-fe2b-a50d-a22923569357</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,27 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traffic routing </t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>What traffic is routed through a firewall, what goes directly into Azure</t>
-        </is>
-      </c>
+          <t>Ensure that the appropriate VM template storage policy is used</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2668,17 +2385,13 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>e095116f-0bdc-4b51-4d71-b9e469d56f59</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>vWAN hub</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>vWAN name, hub name and address space</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>Name and unique address space for the vWAN, name for the vWAN hub</t>
-        </is>
-      </c>
+          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2718,17 +2427,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-site-to-site-portal#openvwan</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>4dc480ac-cecd-39c4-fdc6-680b300716ab</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2739,27 +2444,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>vWAN hub</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ExR and/or VPN gateway provisioned</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>Select either boh or the appropriate connection type.</t>
-        </is>
-      </c>
+          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2768,17 +2469,13 @@
         </is>
       </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-point-to-site-portal</t>
-        </is>
-      </c>
+      <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>51d6affd-8e02-6aea-d3d4-0baf618b3076</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2789,24 +2486,20 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>vWAN hub</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Secure vWAN</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>Add Azure firewall to vWAN (recommended)</t>
-        </is>
-      </c>
+          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2818,17 +2511,13 @@
         </is>
       </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-expressroute-portal</t>
-        </is>
-      </c>
+      <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e32a4c67-3dc0-c134-1c12-52d46dcbab5b</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2839,27 +2528,23 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>External Identity (user accounts)</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Active directory or other identity provider servers</t>
-        </is>
-      </c>
+          <t>Ensure that you have a policy around ESXi host density and efficiency, keeping in mind the lead time for requesting new nodes</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2868,17 +2553,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>fbc47fbf-bc96-fa93-ed5d-8c9be63cd5c3</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2889,24 +2570,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>If using AD domain, ensure Sites &amp; Services has been configured</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>Not required for LDAPS, required for Kerberos</t>
-        </is>
-      </c>
+          <t>Ensure a good cost management process is in place for Azure VMware Solution - Azure Cost Management can be used</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2918,17 +2595,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b5db7975-f6bb-8ba3-ee5f-e3e805887997</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2939,27 +2612,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use LDAPS not ldap ( vCenter)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>Authentication for users, must be secure.</t>
-        </is>
-      </c>
+          <t>Are Azure reserved instances used to optimize cost for using Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2968,16 +2637,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>c30749c4-e2af-558c-2eb9-0b6ae84881d1</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2988,24 +2653,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Use LDAPS not ldap (NSX-T)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>Authentication for users, must be secure.</t>
-        </is>
-      </c>
+          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3017,17 +2678,13 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-external-identity-source-nsx-t</t>
-        </is>
-      </c>
+      <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>64cb9b5c-9edd-787e-1dd8-2b2338e51635</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3038,24 +2695,20 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security certificate installed on LDAPS servers </t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>CN or SAN names, no wildcards, contains private key - CER or PFX</t>
-        </is>
-      </c>
+          <t>Enable Microsoft Defender for Cloud for Azure VMware Solution guest VM workloads</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3067,17 +2720,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://youtu.be/4jvfbsrhnEs</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>bec285ab-037e-d629-81d1-f61dac23cd4c</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3088,24 +2737,20 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>RBAC applied to Azure roles</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>Standard Azure Roles Based Access Controls</t>
-        </is>
-      </c>
+          <t>Use Azure Arc enabled servers to manage your Azure VMware Solution guest VM workloads</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3117,16 +2762,12 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4ba394a2-3c33-104c-8e34-2dadaba9cc73</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3137,27 +2778,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>RBAC model in vCenter</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Create roles in vCenter required to meet minimum viable access guidelines</t>
-        </is>
-      </c>
+          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3166,16 +2803,12 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity#view-the-vcenter-server-privileges</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b04ca129-83a9-3494-7512-347dd2d766db</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3186,24 +2819,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>CloudAdmin role usage</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>CloudAdmin account in vCenter IdP is used only as an emergency account (break-glass)</t>
-        </is>
-      </c>
+          <t>Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3215,17 +2844,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8e477d2f-8004-3dd0-93d6-0aece9e1b2fb</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3236,24 +2861,20 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security </t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Is Privileged Identity Management implemented</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>For roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
-        </is>
-      </c>
+          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3265,17 +2886,13 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>00e0b729-f9be-f600-8c32-5ec0e8f2ed63</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3286,24 +2903,20 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security </t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Is Privileged Identity Management audit reporting implemented</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>For the Azure VMware Solution PIM roles</t>
-        </is>
-      </c>
+          <t>Use Microsoft Defender for Cloud for compliance monitoring of workloads running on Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3315,17 +2928,13 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>0842d45f-41a8-8274-1155-2f6ed554d315</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3336,24 +2945,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security </t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Limit use of CloudAdmin account to emergency access only</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>Best practice, also see Monitoring/Alerts</t>
-        </is>
-      </c>
+          <t>Are the applicable compliance baselines added to Microsoft Defender for Cloud</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3365,16 +2970,12 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>915cbcd7-0640-eb7c-4162-9f33775de559</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3385,27 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security </t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>Operational procedure</t>
-        </is>
-      </c>
+          <t>Was data residency evaluated when selecting Azure regions to use for Azure VMware Solution deployment</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3414,17 +3011,13 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/rotate-cloudadmin-credentials?tabs=azure-portal</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>7effa0c0-9172-e8e4-726a-67dbea8be40a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3435,27 +3028,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>AVS VM Management (Azure Arc)</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
-        </is>
-      </c>
+          <t>Are data processing implications (service provider / service consumer model) clear and documented</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3464,16 +3053,12 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-arc/vmware-vsphere/overview</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>8f426fd0-d73b-d398-1f6f-df0cbe262a82</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3074,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Azure policy</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
-        </is>
-      </c>
+          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3513,16 +3094,12 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>11dbe773-e380-9191-1418-e886fa7a6fd0</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3115,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Resource locks</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
-        </is>
-      </c>
+          <t>Create warning alerts for critical thresholds for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3562,16 +3135,12 @@
         </is>
       </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/management/lock-resources?tabs=json#configure-locks</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1e59c639-9b7e-a60b-5e93-3798c1aff5db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,22 +3156,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Run books</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>For manual deployments, all configuration and deployments must be documented</t>
-        </is>
-      </c>
+          <t>Ensure critical alert is created to monitor if vSAN consumption is below 75% as this is a support threshold from VMware</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,16 +3176,12 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>Make sure to create your own runbook on the deployment of AVS.</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8f2c46aa-ca1b-cad3-3ac9-213dfc0a265e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3636,22 +3197,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Naming conventions for auth keys</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="inlineStr">
-        <is>
-          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
-        </is>
-      </c>
+          <t>Ensure alerts are configured for Azure Service Health alerts and notifications</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3660,16 +3217,12 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-abbreviations</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>86b314f9-1f1e-317a-4dfb-cf510ad4a030</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,24 +3233,20 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Alerts</t>
-        </is>
-      </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Create warning alerts for critical thresholds </t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>For automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>Configure Azure VMware Solution logging to be send to an Azure Storage account or Azure EventHub for processing</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3709,16 +3258,12 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>e22a2d99-eb71-7d7c-07af-6d4cdb1d4443</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,27 +3274,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>Alerts</t>
-        </is>
-      </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Create critical alert vSAN consumption</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="inlineStr">
-        <is>
-          <t>for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>If deep insight in VMware vSphere is required: Is vRealize Operations and/or vRealize Network Insights used in the solution?</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3758,16 +3299,12 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6d02f159-627d-79bf-a931-fab6d947eda2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3778,27 +3315,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Alerts</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Configured for Azure Service Health alerts and notifications</t>
-        </is>
-      </c>
-      <c r="D62" s="21" t="inlineStr">
-        <is>
-          <t>Provides platform alerts (generated by Microsoft)</t>
-        </is>
-      </c>
+          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning</t>
+        </is>
+      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3807,16 +3340,12 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://www.virtualworkloads.com/2021/04/azure-vmware-solution-azure-service-health/</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>1cc97b39-2c7e-246f-6d73-789cfebfe951</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3827,24 +3356,20 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Backup policy</t>
-        </is>
-      </c>
-      <c r="D63" s="21" t="inlineStr">
-        <is>
-          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
-        </is>
-      </c>
+          <t>Ensure vSphere content libraries are not placed on vSAN as vSAN is a finite resource</t>
+        </is>
+      </c>
+      <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3856,17 +3381,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>0962606c-e3b4-62a9-5661-e4ffd62a4509</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3877,24 +3398,20 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Policy around ESXi host density and efficiency</t>
-        </is>
-      </c>
-      <c r="D64" s="21" t="inlineStr">
-        <is>
-          <t>Keep in mind the lead time for requesting new nodes</t>
-        </is>
-      </c>
+          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
+        </is>
+      </c>
+      <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3906,17 +3423,13 @@
         </is>
       </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>4ec7ccfb-795e-897e-4a84-fd31c04eadc6</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3927,24 +3440,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Costs</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure a good cost management process is in place for Azure VMware Solution - </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Cost Management can be used - one option, put AVS in it's own Subscription. </t>
-        </is>
-      </c>
+          <t>Ensure workloads running on Azure VMware Solution are hybrid managed using Azure Arc for Servers (Arc for Azure VMware Solution is in preview)</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3956,17 +3465,13 @@
         </is>
       </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/govern</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>7f8f175d-13f4-5298-9e61-0bc7e9fcc279</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3977,24 +3482,20 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Dashboard</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Connection monitor dashboard</t>
-        </is>
-      </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
-        </is>
-      </c>
+          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4006,16 +3507,12 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>01e689e0-7c6c-b58f-37bd-4d6b9b1b9c74</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4026,24 +3523,20 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Metrics</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configure Azure VMware Solution logging </t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>Send to an Azure Storage account or Azure EventHub for processing (direct to Log Analytics is pending)</t>
-        </is>
-      </c>
+          <t>Include workloads running on Azure VMware Solution in existing update management tooling or in Azure Update Management</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4055,17 +3548,13 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>f9afdcc9-649d-d840-9fb5-a3c0edcc697d</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4076,24 +3565,20 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Metrics</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>vRealize Operations</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>Must be on-premises, implement if available</t>
-        </is>
-      </c>
+          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4105,17 +3590,13 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Is vROPS or vRealize Network Insight going to be used? </t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7cbac8c3-4eda-d5d9-9bda-c6b5abba9fb6</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4126,27 +3607,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Logs &amp; Metrics</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>AVS VM logging</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
-        </is>
-      </c>
+          <t>When ANF is used to extend storage for Azure VMware Solution, ensure it is used at the VM level only for now (ANF as NFS datastore is still in private preview)</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4155,17 +3632,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>b243521a-644d-f865-7fb6-21f9019c0dd2</t>
+          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4176,24 +3649,20 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor ExpressRoute and/or VPN connections </t>
-        </is>
-      </c>
-      <c r="D70" s="21" t="inlineStr">
-        <is>
-          <t>Between on-premises to Azure are monitored using 'connection monitor'</t>
-        </is>
-      </c>
+          <t>Ensure workloads running on Azure VMware Solution are onboarded to Microsoft Defender for Cloud</t>
+        </is>
+      </c>
+      <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4205,17 +3674,13 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>2ca97d91-dd36-7229-b668-01036ccc3cd3</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,24 +3691,20 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Monitor from an Azure native resource to an Azure VMware Solution VM</t>
-        </is>
-      </c>
-      <c r="D71" s="21" t="inlineStr">
-        <is>
-          <t>To monitor the Azure VMware Solution back-end ExpressRoute connection (Azure native to AVS)</t>
-        </is>
-      </c>
+          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
+        </is>
+      </c>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4255,17 +3716,13 @@
         </is>
       </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>99209143-60fe-19f0-5633-8b5671277ba5</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,24 +3733,20 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Monitor  from an on-premises resource to an Azure VMware Solution VM</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>To monitor end-to-end, on-premises to AVS workloads</t>
-        </is>
-      </c>
+          <t>Use VMware Site Recovery Manager when both sites are Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4305,17 +3758,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>b9e5867c-57d3-036f-fb1b-3f0a71664efe</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,24 +3775,20 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auditing and logging is implemented for inbound internet </t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>Track requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
-        </is>
-      </c>
+          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4355,17 +3800,13 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="inlineStr">
-        <is>
-          <t>Firewall logging and alerting rules are configured (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
+      <c r="H73" s="15" t="n"/>
       <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4af7c5f7-e5e9-bedf-a8cf-314b81735962</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,27 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Session monitoring  </t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
-        </is>
-      </c>
+          <t>Use Automated recovery plans with either of the Disaster solutions, avoid manual tasks as much as possible</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4405,17 +3842,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>74be60a3-cfac-f057-eda6-3ee087e805d5</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,24 +3859,20 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>VMWare</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Logging and diagnostics</t>
-        </is>
-      </c>
-      <c r="D75" s="21" t="inlineStr">
-        <is>
-          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Use the geopolitical region pair as the secondary disaster recovery environment</t>
+        </is>
+      </c>
+      <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4455,17 +3884,13 @@
         </is>
       </c>
       <c r="G75" s="21" t="n"/>
-      <c r="H75" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>a434b3b5-f258-0845-cd76-d7df6ef5890e</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>VMware</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Log Analytics Agents deployed on Azure VMware Solution guest VM workloads</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>Monitor AVS workloads (each VM in AVS)</t>
-        </is>
-      </c>
+          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4505,17 +3926,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-monitor/agents/agent-windows?tabs=setup-wizard</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fb00b69a-83ec-ce72-446e-6c23a0cab09a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4526,24 +3943,20 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">North/South routing through Az Firewall or 3rd party </t>
-        </is>
-      </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>Decision on traffic flow</t>
-        </is>
-      </c>
+          <t>Will ExpressRoute Global Reach be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or is routing done through network virtual appliances?</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4555,17 +3968,13 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H77" s="15" t="n"/>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1354b87-e18e-bf5c-c50b-8ddf0540e971</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4576,24 +3985,20 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>East West (Internal to Azure)</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>Decision to route Azure to Azure traffic through Firewall, not E/W between AVS workloads (internal to AVS)</t>
-        </is>
-      </c>
+          <t>Use MABS as your backup solution</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4605,17 +4010,13 @@
         </is>
       </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H78" s="15" t="n"/>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>29a8a499-ec31-f336-3266-0895f035e379</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4626,24 +4027,20 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ExR without Global Reach</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Requires a 3rd party NVA with Azure Route server - Scenario 2 (see link)</t>
-        </is>
-      </c>
+          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4655,17 +4052,13 @@
         </is>
       </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H79" s="15" t="n"/>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>ebd3cc3c-ac3d-4293-950d-cecd8445a523</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4676,24 +4069,20 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Route server </t>
-        </is>
-      </c>
-      <c r="D80" s="21" t="inlineStr">
-        <is>
-          <t>When route server is used, ensure no more then 200 routes are propagated from route server to ExR gateway to on-premises (ARS limit). Important when using MoN</t>
-        </is>
-      </c>
+          <t>Preferably deploy MABS outside of the SDDC as native Azure IaaS</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4705,17 +4094,13 @@
         </is>
       </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/route-server/route-server-faq</t>
-        </is>
-      </c>
+      <c r="H80" s="15" t="n"/>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ffb5c5ca-bd89-ff1b-8b73-8a54d503d506</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4726,27 +4111,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Egress point(s)</t>
-        </is>
-      </c>
-      <c r="D81" s="21" t="inlineStr">
-        <is>
-          <t>Via on-premises, Az Firewall, 3rd Party, NSX-T pubic IP</t>
-        </is>
-      </c>
+          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4755,17 +4136,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-design-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a4070dad-3def-818d-e9f7-be440d10e7de</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Deployment strategy</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Internet facing applications</t>
-        </is>
-      </c>
-      <c r="D82" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Az Firewall, 3rd party NVA, Application Gateway, Azure Frontdoor </t>
-        </is>
-      </c>
+          <t>For manual deployments, all configuration and deployments must be documented</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4805,17 +4178,13 @@
         </is>
       </c>
       <c r="G82" s="21" t="n"/>
-      <c r="H82" s="15" t="inlineStr">
-        <is>
-          <t>Research and choose optimal solution for each application</t>
-        </is>
-      </c>
+      <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e942c03d-beaa-3d9f-0526-9b26cd5e9937</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Routing</t>
+          <t>Deployment strategy</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">When route server Route limit understood? </t>
-        </is>
-      </c>
-      <c r="D83" s="21" t="inlineStr">
-        <is>
-          <t>Ensure no more then 200 routes are propagated from route server to ExR gateway to on-premises (ARS limit). Important when using MoN</t>
-        </is>
-      </c>
+          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4855,17 +4220,13 @@
         </is>
       </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/route-server/route-server-faq#route-server-limits</t>
-        </is>
-      </c>
+      <c r="H83" s="15" t="n"/>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e778a2ec-b4d7-1d27-574c-14476b167d37</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4237,23 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is DDoS standard protection of public facing IP addresses?  </t>
-        </is>
-      </c>
-      <c r="D84" s="21" t="inlineStr">
-        <is>
-          <t>(VPN Gateway, AppGW, FrontDoor, Load balancer, VMs (etc) (Remove: enabled on ExR/VPN Gateway subnet in Azure)</t>
-        </is>
-      </c>
+          <t>For automated deployments, deploy a minimal private cloud and scale as needed</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4905,17 +4262,13 @@
         </is>
       </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/ddos-protection/manage-ddos-protection</t>
-        </is>
-      </c>
+      <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>66c97b30-81b9-139a-cc76-dd1d94aef42a</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,27 +4279,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use a dedicated privileged access workstation (PAW)</t>
-        </is>
-      </c>
-      <c r="D85" s="21" t="inlineStr">
-        <is>
-          <t>To manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
-        </is>
-      </c>
+          <t>For automated deployments,  request or reserve quota prior to starting the deployment</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4955,17 +4304,13 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="inlineStr">
-        <is>
-          <t>Best practice: Bastion or 3rd party tool</t>
-        </is>
-      </c>
+      <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d43da920-4ecc-a4e9-dd45-a2986ce81d32</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4321,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Traffic Inspection</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>East West (Internal to AVS)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>Use NSX-T for inter-vmware-traffic inspection</t>
-        </is>
-      </c>
+          <t>For automated deployment, ensure that relevant resource locks are created through the automation or through Azure Policy for proper governance</t>
+        </is>
+      </c>
+      <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5005,17 +4346,13 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/administration/GUID-F6685367-7AA1-4771-927E-ED77727CFDA3.html</t>
-        </is>
-      </c>
+      <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>a2dac74f-5380-6e39-25e6-f13b99ece51f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,27 +4363,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Secure Hub (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
-      <c r="D87" s="21" t="inlineStr">
-        <is>
-          <t>Decision on whether or not to use Secure hub for E/W and Internet traffic - requires Global Reach</t>
-        </is>
-      </c>
+          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
+        </is>
+      </c>
+      <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5055,17 +4388,13 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
+      <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>3f621543-dfac-c471-54a6-7b2849b6909a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +4405,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>East West (Internal to Azure)</t>
-        </is>
-      </c>
-      <c r="D88" s="21" t="inlineStr">
-        <is>
-          <t>Decision to route Azure to Azure traffic through Firewall, not E/W between AVS workloads (internal to AVS)</t>
-        </is>
-      </c>
+          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5105,17 +4430,13 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/secure-cloud-network</t>
-        </is>
-      </c>
+      <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>d7af5670-1b39-d95d-6da2-8d660dfbe16b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +4447,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Automated Scale</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Scale out operations planning</t>
-        </is>
-      </c>
-      <c r="D89" s="21" t="inlineStr">
-        <is>
-          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Define resource dependencies for serializing actions in IaC when many resources need to be deployed in/on Azure VMware Solution as Azure VMware Solution only supports a limited number of parallel operations.</t>
+        </is>
+      </c>
+      <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5155,17 +4472,13 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-nsx-network-components-azure-portal</t>
-        </is>
-      </c>
+      <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>7d049005-eb35-4a93-50a5-3b31a9f61161</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +4489,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Automated Scale</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Scale in operations planning</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="inlineStr">
-        <is>
-          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
-        </is>
-      </c>
+          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5205,17 +4514,13 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H90" s="15" t="n"/>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>7242c1de-da37-27f3-1ddd-565ccccb8ece</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,7 +4531,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5236,14 +4541,10 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Scale serialized operations planning</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
-        </is>
-      </c>
+          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5255,17 +4556,13 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3233e49e-62ce-97f3-8737-8230e771b694</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,7 +4573,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5286,14 +4583,10 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Scale rd operations planning</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
-        </is>
-      </c>
+          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5305,17 +4598,13 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="inlineStr">
-        <is>
-          <t>Best practice (testing)</t>
-        </is>
-      </c>
+      <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>68161d66-5707-319b-e77d-9217da892593</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,7 +4615,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5336,14 +4625,10 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Scale maximum operations planning</t>
-        </is>
-      </c>
-      <c r="D93" s="21" t="inlineStr">
-        <is>
-          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
-        </is>
-      </c>
+          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5355,17 +4640,13 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="inlineStr">
-        <is>
-          <t>Operational planning - understand workload requirements</t>
-        </is>
-      </c>
+      <c r="H93" s="15" t="n"/>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c32cb953-e860-f204-957a-c79d61202669</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,7 +4657,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5386,14 +4667,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitor scaling operations </t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
-        </is>
-      </c>
+          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5405,17 +4682,13 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-management-and-monitoring</t>
-        </is>
-      </c>
+      <c r="H94" s="15" t="n"/>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7bd65a5e-7b5d-652d-dbea-fc6f73a42857</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,24 +4699,20 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Automated Scale</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Private link</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
-        </is>
-      </c>
+          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5455,17 +4724,13 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-link-overview</t>
-        </is>
-      </c>
+      <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>95e374af-8a2a-2672-7ab7-b4a1be43ada7</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,24 +4741,20 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Other Services/Operations</t>
+          <t>Platform Automation</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Automated Scale</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Provisioning Vmware VLANs</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
-        </is>
-      </c>
+          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5505,17 +4766,13 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H96" s="15" t="n"/>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>71eff90d-5ad7-ac60-6244-2a6f7d3c51f2</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5524,1837 +4781,615 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>Region selected</t>
-        </is>
-      </c>
-      <c r="D97" s="21" t="inlineStr">
-        <is>
-          <t>In which region will AVS be deployed</t>
-        </is>
-      </c>
-      <c r="E97" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A97" s="21" t="n"/>
+      <c r="B97" s="21" t="n"/>
+      <c r="C97" s="21" t="n"/>
+      <c r="D97" s="21" t="n"/>
+      <c r="E97" s="21" t="n"/>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="inlineStr">
-        <is>
-          <t>04e3a2f9-83b7-968a-1044-2811811a924b</t>
-        </is>
-      </c>
+      <c r="L97" s="25" t="n"/>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B98" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>Data residency compliant with selected regions</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="inlineStr">
-        <is>
-          <t>Are there regulatory or compliance policies in play</t>
-        </is>
-      </c>
-      <c r="E98" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A98" s="21" t="n"/>
+      <c r="B98" s="21" t="n"/>
+      <c r="C98" s="21" t="n"/>
+      <c r="D98" s="21" t="n"/>
+      <c r="E98" s="21" t="n"/>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="inlineStr">
-        <is>
-          <t>Internal policy or regulatory compliance</t>
-        </is>
-      </c>
+      <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="inlineStr">
-        <is>
-          <t>e52d1615-9cc6-565c-deb6-743ed7e90f4b</t>
-        </is>
-      </c>
+      <c r="L98" s="25" t="n"/>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C99" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Request for number of AVS hosts submitted </t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>Request through the support blade</t>
-        </is>
-      </c>
-      <c r="E99" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A99" s="21" t="n"/>
+      <c r="B99" s="21" t="n"/>
+      <c r="C99" s="21" t="n"/>
+      <c r="D99" s="21" t="n"/>
+      <c r="E99" s="21" t="n"/>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/concepts-azure-vmware-solution-assessment-calculation</t>
-        </is>
-      </c>
+      <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="inlineStr">
-        <is>
-          <t>92bd5ad6-441f-a983-7aa9-05dd669d760b</t>
-        </is>
-      </c>
+      <c r="L99" s="25" t="n"/>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B100" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C100" s="21" t="inlineStr">
-        <is>
-          <t>Region and number of AVS nodes approved</t>
-        </is>
-      </c>
-      <c r="D100" s="21" t="inlineStr">
-        <is>
-          <t>PG approval for deployment</t>
-        </is>
-      </c>
-      <c r="E100" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A100" s="21" t="n"/>
+      <c r="B100" s="21" t="n"/>
+      <c r="C100" s="21" t="n"/>
+      <c r="D100" s="21" t="n"/>
+      <c r="E100" s="21" t="n"/>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="inlineStr">
-        <is>
-          <t>Support request through portal or get help from Account Team</t>
-        </is>
-      </c>
+      <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="inlineStr">
-        <is>
-          <t>28370f63-1cb8-2e35-907f-c5516b6954fa</t>
-        </is>
-      </c>
+      <c r="L100" s="25" t="n"/>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C101" s="21" t="inlineStr">
-        <is>
-          <t>Resource provider for AVS registered</t>
-        </is>
-      </c>
-      <c r="D101" s="21" t="inlineStr">
-        <is>
-          <t>Portal/subscription/resource providers/ Microsoft.AVS</t>
-        </is>
-      </c>
-      <c r="E101" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A101" s="21" t="n"/>
+      <c r="B101" s="21" t="n"/>
+      <c r="C101" s="21" t="n"/>
+      <c r="D101" s="21" t="n"/>
+      <c r="E101" s="21" t="n"/>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>Done through the subscription/resource providers/ AVS  register in the portal</t>
-        </is>
-      </c>
+      <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="inlineStr">
-        <is>
-          <t>96c76997-30a6-bb92-024d-f4f93f5f57fa</t>
-        </is>
-      </c>
+      <c r="L101" s="25" t="n"/>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B102" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C102" s="21" t="inlineStr">
-        <is>
-          <t>Landing zone architecture</t>
-        </is>
-      </c>
-      <c r="D102" s="21" t="inlineStr">
-        <is>
-          <t>Connectivity, subscription &amp; governanace model</t>
-        </is>
-      </c>
-      <c r="E102" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A102" s="21" t="n"/>
+      <c r="B102" s="21" t="n"/>
+      <c r="C102" s="21" t="n"/>
+      <c r="D102" s="21" t="n"/>
+      <c r="E102" s="21" t="n"/>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/enterprise-scale-landing-zone</t>
-        </is>
-      </c>
+      <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="inlineStr">
-        <is>
-          <t>5898e3ff-5e6b-bee1-6f85-22fee261ce63</t>
-        </is>
-      </c>
+      <c r="L102" s="25" t="n"/>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C103" s="21" t="inlineStr">
-        <is>
-          <t>Resource group name selected</t>
-        </is>
-      </c>
-      <c r="D103" s="21" t="inlineStr">
-        <is>
-          <t>The name of the RG where AVS will exist</t>
-        </is>
-      </c>
-      <c r="E103" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A103" s="21" t="n"/>
+      <c r="B103" s="21" t="n"/>
+      <c r="C103" s="21" t="n"/>
+      <c r="D103" s="21" t="n"/>
+      <c r="E103" s="21" t="n"/>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/manage-resource-groups-portal</t>
-        </is>
-      </c>
+      <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="inlineStr">
-        <is>
-          <t>d0181fb8-9cb8-bf4b-f5e5-b5f9bf7ae4ea</t>
-        </is>
-      </c>
+      <c r="L103" s="25" t="n"/>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C104" s="21" t="inlineStr">
-        <is>
-          <t>Deployment prefix selected</t>
-        </is>
-      </c>
-      <c r="D104" s="21" t="inlineStr">
-        <is>
-          <t>Each resource created as part of the deployment will also utilize this prefix in the name</t>
-        </is>
-      </c>
-      <c r="E104" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A104" s="21" t="n"/>
+      <c r="B104" s="21" t="n"/>
+      <c r="C104" s="21" t="n"/>
+      <c r="D104" s="21" t="n"/>
+      <c r="E104" s="21" t="n"/>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="inlineStr">
-        <is>
-          <t>Best practice - naming standards</t>
-        </is>
-      </c>
+      <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="inlineStr">
-        <is>
-          <t>0f0d20c2-5a19-726c-de20-0984e070d9d6</t>
-        </is>
-      </c>
+      <c r="L104" s="25" t="n"/>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C105" s="21" t="inlineStr">
-        <is>
-          <t>Network space for AVS management layer</t>
-        </is>
-      </c>
-      <c r="D105" s="21" t="inlineStr">
-        <is>
-          <t>/22 unique non-overlapping  IPv4 address space</t>
-        </is>
-      </c>
-      <c r="E105" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A105" s="21" t="n"/>
+      <c r="B105" s="21" t="n"/>
+      <c r="C105" s="21" t="n"/>
+      <c r="D105" s="21" t="n"/>
+      <c r="E105" s="21" t="n"/>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-network-checklist#routing-and-subnet-considerations</t>
-        </is>
-      </c>
+      <c r="H105" s="15" t="n"/>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="inlineStr">
-        <is>
-          <t>7fbf2ab7-a36c-5957-c27a-67038557af2a</t>
-        </is>
-      </c>
+      <c r="L105" s="25" t="n"/>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C106" s="21" t="inlineStr">
-        <is>
-          <t>Network space for AVS NSX-T segments</t>
-        </is>
-      </c>
-      <c r="D106" s="21" t="inlineStr">
-        <is>
-          <t>vNets used by workloads running in AVS (non-stretched)</t>
-        </is>
-      </c>
-      <c r="E106" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A106" s="21" t="n"/>
+      <c r="B106" s="21" t="n"/>
+      <c r="C106" s="21" t="n"/>
+      <c r="D106" s="21" t="n"/>
+      <c r="E106" s="21" t="n"/>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/installation/GUID-4B3860B8-1883-48CA-B2F3-7C2205D91D6D.html</t>
-        </is>
-      </c>
+      <c r="H106" s="15" t="n"/>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="inlineStr">
-        <is>
-          <t>0c87f999-e517-21ef-f355-f210ad4134d2</t>
-        </is>
-      </c>
+      <c r="L106" s="25" t="n"/>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>AVS SKU (region dependent)</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="inlineStr">
-        <is>
-          <t>Choose AV36, AV36P, AV52, AV36T  (AV36T = Trial)</t>
-        </is>
-      </c>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A107" s="21" t="n"/>
+      <c r="B107" s="21" t="n"/>
+      <c r="C107" s="21" t="n"/>
+      <c r="D107" s="21" t="n"/>
+      <c r="E107" s="21" t="n"/>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-us/pricing/details/azure-vmware/</t>
-        </is>
-      </c>
+      <c r="H107" s="15" t="n"/>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="inlineStr">
-        <is>
-          <t>946c8966-f902-6f53-4f37-00847e8895c2</t>
-        </is>
-      </c>
+      <c r="L107" s="25" t="n"/>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C108" s="21" t="inlineStr">
-        <is>
-          <t>Number of hosts to be deployed</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Use the Azure migration assessment tool to determine the minimum number of nodes required (consider BCDR as well)</t>
-        </is>
-      </c>
-      <c r="E108" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A108" s="21" t="n"/>
+      <c r="B108" s="21" t="n"/>
+      <c r="C108" s="21" t="n"/>
+      <c r="D108" s="21" t="n"/>
+      <c r="E108" s="21" t="n"/>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/how-to-assess</t>
-        </is>
-      </c>
+      <c r="H108" s="15" t="n"/>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="inlineStr">
-        <is>
-          <t>31833808-26ba-9c31-416f-d54a89a17f5d</t>
-        </is>
-      </c>
+      <c r="L108" s="25" t="n"/>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B109" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C109" s="21" t="inlineStr">
-        <is>
-          <t>Reserverd Instances</t>
-        </is>
-      </c>
-      <c r="D109" s="21" t="inlineStr">
-        <is>
-          <t>Understand how and if you should be using reserved instances (cost control)</t>
-        </is>
-      </c>
-      <c r="E109" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A109" s="21" t="n"/>
+      <c r="B109" s="21" t="n"/>
+      <c r="C109" s="21" t="n"/>
+      <c r="D109" s="21" t="n"/>
+      <c r="E109" s="21" t="n"/>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-ca/pricing/details/azure-vmware/#:~:text=Azure%20VMware%20Solution%20%20%20%20Instance%20size,TB%20%28all%20NVMe%29%20%20%20N%2FA%20%2Fhour%20</t>
-        </is>
-      </c>
+      <c r="H109" s="15" t="n"/>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="inlineStr">
-        <is>
-          <t>f2b73c4f-3d46-32c9-5df1-5b8dfcd3947f</t>
-        </is>
-      </c>
+      <c r="L109" s="25" t="n"/>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B110" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C110" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capacity </t>
-        </is>
-      </c>
-      <c r="D110" s="21" t="inlineStr">
-        <is>
-          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
-        </is>
-      </c>
-      <c r="E110" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A110" s="21" t="n"/>
+      <c r="B110" s="21" t="n"/>
+      <c r="C110" s="21" t="n"/>
+      <c r="D110" s="21" t="n"/>
+      <c r="E110" s="21" t="n"/>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="inlineStr">
-        <is>
-          <t>94ac48ab-ade5-3fa7-f800-263feeb97070</t>
-        </is>
-      </c>
+      <c r="L110" s="25" t="n"/>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B111" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>Networking &amp; Connectivity See docs describing scenrario  1 through 5</t>
-        </is>
-      </c>
-      <c r="D111" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Identify which of the networking scenarios make </t>
-        </is>
-      </c>
-      <c r="E111" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A111" s="21" t="n"/>
+      <c r="B111" s="21" t="n"/>
+      <c r="C111" s="21" t="n"/>
+      <c r="D111" s="21" t="n"/>
+      <c r="E111" s="21" t="n"/>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H111" s="15" t="n"/>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="inlineStr">
-        <is>
-          <t>1f9d4bd5-14b8-928c-b4cb-eb211f9b8de5</t>
-        </is>
-      </c>
+      <c r="L111" s="25" t="n"/>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="inlineStr">
-        <is>
-          <t>Planning</t>
-        </is>
-      </c>
-      <c r="B112" s="21" t="inlineStr">
-        <is>
-          <t>Pre-deployment</t>
-        </is>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd party application compatibility </t>
-        </is>
-      </c>
-      <c r="D112" s="21" t="inlineStr">
-        <is>
-          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
-        </is>
-      </c>
-      <c r="E112" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="21" t="n"/>
+      <c r="C112" s="21" t="n"/>
+      <c r="D112" s="21" t="n"/>
+      <c r="E112" s="21" t="n"/>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="inlineStr">
-        <is>
-          <t>Please Check Partner Ecosystem</t>
-        </is>
-      </c>
+      <c r="H112" s="15" t="n"/>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="inlineStr">
-        <is>
-          <t>070db19b-8a2a-fd6a-c39b-4488d8780da9</t>
-        </is>
-      </c>
+      <c r="L112" s="25" t="n"/>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B113" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enable Advanced Threat Detection </t>
-        </is>
-      </c>
-      <c r="D113" s="21" t="inlineStr">
-        <is>
-          <t>MS Defender For Cloud,  for workloads running on Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="E113" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="21" t="n"/>
+      <c r="C113" s="21" t="n"/>
+      <c r="D113" s="21" t="n"/>
+      <c r="E113" s="21" t="n"/>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/azure-security-integration#prerequisites</t>
-        </is>
-      </c>
+      <c r="H113" s="15" t="n"/>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="inlineStr">
-        <is>
-          <t>f42b0b09-c591-238a-1580-2de3c485ebd2</t>
-        </is>
-      </c>
+      <c r="L113" s="25" t="n"/>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B114" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>Policy &amp; Regulatory Compliance</t>
-        </is>
-      </c>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>Are the applicable policies enabled (compliance baselines added to MDfC)</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="21" t="n"/>
+      <c r="C114" s="21" t="n"/>
+      <c r="D114" s="21" t="n"/>
+      <c r="E114" s="21" t="n"/>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/azure-security-integration</t>
-        </is>
-      </c>
+      <c r="H114" s="15" t="n"/>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="inlineStr">
-        <is>
-          <t>bcdd2348-3d0e-c6bb-1092-aa4cd1a66d6b</t>
-        </is>
-      </c>
+      <c r="L114" s="25" t="n"/>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B115" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls</t>
-        </is>
-      </c>
-      <c r="C115" s="21" t="inlineStr">
-        <is>
-          <t>Azure / 3rd party firewall</t>
-        </is>
-      </c>
-      <c r="D115" s="21" t="inlineStr">
-        <is>
-          <t>Azure to Azure (E/W), Azure to On-premises), AVS to Internet, AVS to Azure</t>
-        </is>
-      </c>
-      <c r="E115" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="21" t="n"/>
+      <c r="C115" s="21" t="n"/>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="21" t="n"/>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-migration-and/firewall-integration-in-azure-vmware-solution/ba-p/2254961#:~:text=Azure%20VMware%20Solution%20customers%20have%20multiple%20security%20options,the%20box%20to%20provide%20East-West%20and%20North-South%20firewalling.</t>
-        </is>
-      </c>
+      <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="inlineStr">
-        <is>
-          <t>607c1ca9-da92-ae19-5a4c-eb1e876acbe7</t>
-        </is>
-      </c>
+      <c r="L115" s="25" t="n"/>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B116" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls</t>
-        </is>
-      </c>
-      <c r="C116" s="21" t="inlineStr">
-        <is>
-          <t>Firewalls allow for East/West traffic inside AVS</t>
-        </is>
-      </c>
-      <c r="D116" s="21" t="inlineStr">
-        <is>
-          <t>To allow HCX appliance to connect/sync</t>
-        </is>
-      </c>
-      <c r="E116" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="21" t="n"/>
+      <c r="C116" s="21" t="n"/>
+      <c r="D116" s="21" t="n"/>
+      <c r="E116" s="21" t="n"/>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-Cloud-on-AWS/services/com.vmware.vmc-aws-networking-security/GUID-2CFE1654-9CC9-4EDB-A625-21317299E559.html</t>
-        </is>
-      </c>
+      <c r="H116" s="15" t="n"/>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="inlineStr">
-        <is>
-          <t>1d87925c-c02b-7fde-a425-7e95ad846a27</t>
-        </is>
-      </c>
+      <c r="L116" s="25" t="n"/>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B117" s="21" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="C117" s="21" t="inlineStr">
-        <is>
-          <t>HCX and/or SRM</t>
-        </is>
-      </c>
-      <c r="D117" s="21" t="inlineStr">
-        <is>
-          <t>Decision on which tool to use (SRM requires additional license - enables automation &amp; other features)</t>
-        </is>
-      </c>
-      <c r="E117" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="21" t="n"/>
+      <c r="C117" s="21" t="n"/>
+      <c r="D117" s="21" t="n"/>
+      <c r="E117" s="21" t="n"/>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-B842696B-89EF-4183-9C73-B77157F56055.html</t>
-        </is>
-      </c>
+      <c r="H117" s="15" t="n"/>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="inlineStr">
-        <is>
-          <t>468b3495-2f6e-b65a-38ef-3ba631bcaa46</t>
-        </is>
-      </c>
+      <c r="L117" s="25" t="n"/>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Configuring and Managing the HCX Interconnect</t>
-        </is>
-      </c>
-      <c r="D118" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Read up on requirements for Service Mesh requirements and how HCX </t>
-        </is>
-      </c>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
+      <c r="D118" s="21" t="n"/>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.6/hcx-user-guide/GUID-76BCD059-A31A-4041-9105-ACFB56213E7C.html</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>be2ced52-da08-d366-cf7c-044c19e29509</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="C119" s="21" t="inlineStr">
-        <is>
-          <t>Restrictions and limitations for network extensions</t>
-        </is>
-      </c>
-      <c r="D119" s="21" t="inlineStr">
-        <is>
-          <t>If you are planning on using stretch networks ensure that your on-premises environment requirements</t>
-        </is>
-      </c>
-      <c r="E119" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="21" t="n"/>
+      <c r="C119" s="21" t="n"/>
+      <c r="D119" s="21" t="n"/>
+      <c r="E119" s="21" t="n"/>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-DBDB4D1B-60B6-4D16-936B-4AC632606909.html</t>
-        </is>
-      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="inlineStr">
-        <is>
-          <t>7dcac579-fc5c-5c9c-f1f7-9b1149ff2c37</t>
-        </is>
-      </c>
+      <c r="L119" s="25" t="n"/>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>Networking</t>
-        </is>
-      </c>
-      <c r="C120" s="21" t="inlineStr">
-        <is>
-          <t>Mobility optimized networking</t>
-        </is>
-      </c>
-      <c r="D120" s="21" t="inlineStr">
-        <is>
-          <t>Do workloads require MoN?</t>
-        </is>
-      </c>
-      <c r="E120" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A120" s="21" t="n"/>
+      <c r="B120" s="21" t="n"/>
+      <c r="C120" s="21" t="n"/>
+      <c r="D120" s="21" t="n"/>
+      <c r="E120" s="21" t="n"/>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/vmware-hcx-mon-guidance</t>
-        </is>
-      </c>
+      <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="inlineStr">
-        <is>
-          <t>cf45c0b9-6c4b-3bfb-86c5-62fe54061c73</t>
-        </is>
-      </c>
+      <c r="L120" s="25" t="n"/>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr">
-        <is>
-          <t>On-premises pre-requisites</t>
-        </is>
-      </c>
-      <c r="C121" s="21" t="inlineStr">
-        <is>
-          <t>Support matrix (OS versions etc).</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>Operating system level of Vmware environment</t>
-        </is>
-      </c>
-      <c r="E121" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A121" s="21" t="n"/>
+      <c r="B121" s="21" t="n"/>
+      <c r="C121" s="21" t="n"/>
+      <c r="D121" s="21" t="n"/>
+      <c r="E121" s="21" t="n"/>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/site-recovery/vmware-physical-azure-support-matrix</t>
-        </is>
-      </c>
+      <c r="H121" s="15" t="n"/>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="inlineStr">
-        <is>
-          <t>b7cf11f3-b12e-5189-991a-06df5250d2ca</t>
-        </is>
-      </c>
+      <c r="L121" s="25" t="n"/>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B122" s="21" t="inlineStr">
-        <is>
-          <t>On-premises pre-requisites</t>
-        </is>
-      </c>
-      <c r="C122" s="21" t="inlineStr">
-        <is>
-          <t>Standard switches converted to dynamic switches</t>
-        </is>
-      </c>
-      <c r="D122" s="21" t="inlineStr">
-        <is>
-          <t>Required that all switches are dynamic</t>
-        </is>
-      </c>
-      <c r="E122" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A122" s="21" t="n"/>
+      <c r="B122" s="21" t="n"/>
+      <c r="C122" s="21" t="n"/>
+      <c r="D122" s="21" t="n"/>
+      <c r="E122" s="21" t="n"/>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/vsan-network-design-guide/GUID-91E1CD6F-33A6-4AC6-BC22-3E4807296F86.html#:~:text=Migrate%20Management%20Network%201%20Add%20hosts%20to%20the,each%20host.%20...%204%20Finish%20the%20configuration.%20</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="inlineStr">
-        <is>
-          <t>45fe9252-aa1b-4e30-45c6-bc02f3b76acf</t>
-        </is>
-      </c>
+      <c r="L122" s="25" t="n"/>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B123" s="21" t="inlineStr">
-        <is>
-          <t>On-premises pre-requisites</t>
-        </is>
-      </c>
-      <c r="C123" s="21" t="inlineStr">
-        <is>
-          <t>Capacity for HCX appliance</t>
-        </is>
-      </c>
-      <c r="D123" s="21" t="inlineStr">
-        <is>
-          <t>See sections on sizing and capacity in the link.</t>
-        </is>
-      </c>
-      <c r="E123" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A123" s="21" t="n"/>
+      <c r="B123" s="21" t="n"/>
+      <c r="C123" s="21" t="n"/>
+      <c r="D123" s="21" t="n"/>
+      <c r="E123" s="21" t="n"/>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/plan-private-cloud-deployment</t>
-        </is>
-      </c>
+      <c r="H123" s="15" t="n"/>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="inlineStr">
-        <is>
-          <t>e9f6d736-ee44-e2ac-e7f9-e361f8c857f3</t>
-        </is>
-      </c>
+      <c r="L123" s="25" t="n"/>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B124" s="21" t="inlineStr">
-        <is>
-          <t>On-premises pre-requisites</t>
-        </is>
-      </c>
-      <c r="C124" s="21" t="inlineStr">
-        <is>
-          <t>Hardware compatibility</t>
-        </is>
-      </c>
-      <c r="D124" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Check hardware restrictions to ensure compatibility with AVS/OS </t>
-        </is>
-      </c>
-      <c r="E124" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A124" s="21" t="n"/>
+      <c r="B124" s="21" t="n"/>
+      <c r="C124" s="21" t="n"/>
+      <c r="D124" s="21" t="n"/>
+      <c r="E124" s="21" t="n"/>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="inlineStr">
-        <is>
-          <t>https://kb.vmware.com/s/article/2007240#:~:text=ESXi%2FESX%20hosts%20and%20compatible%20virtual%20machine%20hardware%20versions,%20Not%20Supported%20%204%20more%20rows</t>
-        </is>
-      </c>
+      <c r="H124" s="15" t="n"/>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="inlineStr">
-        <is>
-          <t>1be2cdd6-15a7-9a33-aea7-113859035ce9</t>
-        </is>
-      </c>
+      <c r="L124" s="25" t="n"/>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B125" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C125" s="21" t="inlineStr">
-        <is>
-          <t>VSAN RDM disks are converted - not supported.</t>
-        </is>
-      </c>
-      <c r="D125" s="21" t="inlineStr">
-        <is>
-          <t>Need to be converted</t>
-        </is>
-      </c>
-      <c r="E125" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A125" s="21" t="n"/>
+      <c r="B125" s="21" t="n"/>
+      <c r="C125" s="21" t="n"/>
+      <c r="D125" s="21" t="n"/>
+      <c r="E125" s="21" t="n"/>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/com.vmware.vsphere.storage.doc/GUID-01D3CF47-A84A-4988-8103-A0487D6441AA.html</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="inlineStr">
-        <is>
-          <t>16ab821a-27c6-b6d3-6042-10dc4d6dfcb7</t>
-        </is>
-      </c>
+      <c r="L125" s="25" t="n"/>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B126" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C126" s="21" t="inlineStr">
-        <is>
-          <t>VM with SCSI shared bus are not supported</t>
-        </is>
-      </c>
-      <c r="D126" s="21" t="inlineStr">
-        <is>
-          <t>Need to be converted</t>
-        </is>
-      </c>
-      <c r="E126" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A126" s="21" t="n"/>
+      <c r="B126" s="21" t="n"/>
+      <c r="C126" s="21" t="n"/>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="21" t="n"/>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="inlineStr">
-        <is>
-          <t>3rd-Party tools</t>
-        </is>
-      </c>
+      <c r="H126" s="15" t="n"/>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="inlineStr">
-        <is>
-          <t>eb2f9313-afb2-ab35-aa24-6d97a3cb0611</t>
-        </is>
-      </c>
+      <c r="L126" s="25" t="n"/>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B127" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C127" s="21" t="inlineStr">
-        <is>
-          <t>VM with Direct IO require removing DirectPath device</t>
-        </is>
-      </c>
-      <c r="D127" s="21" t="inlineStr">
-        <is>
-          <t>Remove Direct IO before migration</t>
-        </is>
-      </c>
-      <c r="E127" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A127" s="21" t="n"/>
+      <c r="B127" s="21" t="n"/>
+      <c r="C127" s="21" t="n"/>
+      <c r="D127" s="21" t="n"/>
+      <c r="E127" s="21" t="n"/>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="inlineStr">
-        <is>
-          <t>3f2a5cff-c8a6-634a-1f1b-53ef9d321381</t>
-        </is>
-      </c>
+      <c r="L127" s="25" t="n"/>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B128" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C128" s="21" t="inlineStr">
-        <is>
-          <t>Shared VMDK files are not supported</t>
-        </is>
-      </c>
-      <c r="D128" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cannot migrate clusters </t>
-        </is>
-      </c>
-      <c r="E128" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A128" s="21" t="n"/>
+      <c r="B128" s="21" t="n"/>
+      <c r="C128" s="21" t="n"/>
+      <c r="D128" s="21" t="n"/>
+      <c r="E128" s="21" t="n"/>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="inlineStr">
-        <is>
-          <t>efc8a311-74f8-0252-c6a0-4bac7610e266</t>
-        </is>
-      </c>
+      <c r="L128" s="25" t="n"/>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B129" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C129" s="21" t="inlineStr">
-        <is>
-          <t>RDM with 'physical compatibility mode' are not supported.</t>
-        </is>
-      </c>
-      <c r="D129" s="21" t="inlineStr">
-        <is>
-          <t>Convert to a different format</t>
-        </is>
-      </c>
-      <c r="E129" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A129" s="21" t="n"/>
+      <c r="B129" s="21" t="n"/>
+      <c r="C129" s="21" t="n"/>
+      <c r="D129" s="21" t="n"/>
+      <c r="E129" s="21" t="n"/>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="inlineStr">
-        <is>
-          <t>ab6c89cd-a26f-b894-fe59-61863975458e</t>
-        </is>
-      </c>
+      <c r="L129" s="25" t="n"/>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B130" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C130" s="21" t="inlineStr">
-        <is>
-          <t>Default storage policy</t>
-        </is>
-      </c>
-      <c r="D130" s="21" t="inlineStr">
-        <is>
-          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning 'RAID-1 FTT-1' is default with Thin Provisioning</t>
-        </is>
-      </c>
-      <c r="E130" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A130" s="21" t="n"/>
+      <c r="B130" s="21" t="n"/>
+      <c r="C130" s="21" t="n"/>
+      <c r="D130" s="21" t="n"/>
+      <c r="E130" s="21" t="n"/>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="inlineStr">
-        <is>
-          <t>7628d446-6b10-9678-9cec-f407d990de43</t>
-        </is>
-      </c>
+      <c r="L130" s="25" t="n"/>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Ensure that the appropriate VM template storage policy is used</t>
-        </is>
-      </c>
-      <c r="D131" s="21" t="inlineStr">
-        <is>
-          <t>The default storage policy is set to RAID-1 (Mirroring) FTT-1, with Object Space Reservation set to Thin provisioning.</t>
-        </is>
-      </c>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
+      <c r="D131" s="21" t="n"/>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-storage-policy</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>37fef358-7ab9-43a9-542c-22673955200e</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B132" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C132" s="21" t="inlineStr">
-        <is>
-          <t>Failure to tolerate policy</t>
-        </is>
-      </c>
-      <c r="D132" s="21" t="inlineStr">
-        <is>
-          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
-        </is>
-      </c>
-      <c r="E132" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A132" s="21" t="n"/>
+      <c r="B132" s="21" t="n"/>
+      <c r="C132" s="21" t="n"/>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="21" t="n"/>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="inlineStr">
-        <is>
-          <t>ebebd109-9f9d-d85e-1b2f-d302012843b7</t>
-        </is>
-      </c>
+      <c r="L132" s="25" t="n"/>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B133" s="21" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="C133" s="21" t="inlineStr">
-        <is>
-          <t>Use ANF for external storage</t>
-        </is>
-      </c>
-      <c r="D133" s="21" t="inlineStr">
-        <is>
-          <t>ANF can be used to extend storage for Azure VMware Solution,</t>
-        </is>
-      </c>
-      <c r="E133" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="A133" s="21" t="n"/>
+      <c r="B133" s="21" t="n"/>
+      <c r="C133" s="21" t="n"/>
+      <c r="D133" s="21" t="n"/>
+      <c r="E133" s="21" t="n"/>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/netapp-files-with-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H133" s="15" t="n"/>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="inlineStr">
-        <is>
-          <t>1be821bd-4f37-216a-3e3d-2a5ac6996863</t>
-        </is>
-      </c>
+      <c r="L133" s="25" t="n"/>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
@@ -9877,20 +7912,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9902,123 +8035,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F134" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10033,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10109,7 +8127,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Planning</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10146,7 +8164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Connectivity</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10173,7 +8191,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10195,7 +8213,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10217,7 +8235,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10234,28 +8252,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BCDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Other Services/Operations</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Management</t>
+          <t>Platform Automation</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avs_checklist.en.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.en.xlsx
@@ -1132,7 +1132,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Ensure that NSX-Manager is  integrated with an external Identity provider</t>
+          <t>Ensure that NSX-Manager is integrated with an external Identity provider (LDAPS)</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1437,17 +1437,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Architecture</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Is the correct Azure VMware Solution connectivity model selected for the customer use case at hand</t>
+          <t>Ensure all custom roles are scoped with CloudAdmin permitted authorizations</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1462,17 +1462,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1488,12 +1484,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Ensure ExpressRoute or VPN connections from on-premises to Azure are monitored using 'connection monitor'</t>
+          <t>Is the correct Azure VMware Solution connectivity model selected for the customer use case at hand</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1508,13 +1504,17 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
+        </is>
+      </c>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Ensure a connection monitor is created from an Azure native resource to an Azure VMware Solution virtual machine to monitor the Azure VMware Solution back-end ExpressRoute connection</t>
+          <t>Ensure ExpressRoute or VPN connections from on-premises to Azure are monitored using 'connection monitor'</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Ensure a connection monitor is created from an on-premises resource to an Azure VMware Solution virtual machine to monitor end-2-end connectivity</t>
+          <t>Ensure a connection monitor is created from an Azure native resource to an Azure VMware Solution virtual machine to monitor the Azure VMware Solution back-end ExpressRoute connection</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1598,7 +1598,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Routing</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>When route server is used, ensure no more then 200 routes are propagated from route server to ExR gateway to on-premises (ARS limit). Important when using MoN</t>
+          <t>Ensure a connection monitor is created from an on-premises resource to an Azure VMware Solution virtual machine to monitor end-2-end connectivity</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1651,17 +1651,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Security (identity)</t>
+          <t>Routing</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Is Privileged Identity Management implemented for roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
+          <t>When route server is used, ensure no more then 1000 routes are propagated from route server to ExR gateway to on-premises (ARS limit).</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Is Privileged Identity Management audit reporting implemented for the Azure VMware Solution PIM roles</t>
+          <t>Is Privileged Identity Management implemented for roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Limit use of CloudAdmin account to emergency access only</t>
+          <t>Privileged Identity Management audit reporting should be implemented for the Azure VMware Solution PIM roles</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Create custom RBAC roles in vCenter to implement a least-privilege model inside vCenter</t>
+          <t>If using Privileged Identity Management is being used, ensure that a valid Entra ID enabled account is created with a valid SMTP record for Azure VMware Solution Automatic Host replacement notifications. (standing permissions required)</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1808,7 +1808,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1829,13 +1829,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
+          <t>Limit use of CloudAdmin account to emergency access only</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1871,13 +1871,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized identity provider to be used for workloads (VM's) running on Azure VMware Solution</t>
+          <t>Create custom RBAC roles in vCenter to implement a least-privilege model inside vCenter</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,7 +1891,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Security (network)</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Is East-West traffic filtering implemented within NSX-T</t>
+          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1932,7 +1932,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Security (network)</t>
+          <t>Security (identity)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Workloads on Azure VMware Solution are not directly exposed to the internet. Traffic is filtered and inspected by Azure Application Gateway, Azure Firewall or 3rd party solutions</t>
+          <t>Use a centralized identity provider to be used for workloads (VM's) running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -1973,7 +1973,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1994,13 +1994,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Auditing and logging is implemented for inbound internet requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
+          <t>Is East-West traffic filtering implemented within NSX-T</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Session monitoring is implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
+          <t>Workloads on Azure VMware Solution are not directly exposed to the internet. Traffic is filtered and inspected by Azure Application Gateway, Azure Firewall or 3rd party solutions</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2055,7 +2055,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2076,13 +2076,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Is DDoS standard protection enabled on ExR/VPN Gateway subnet in Azure</t>
+          <t>Auditing and logging is implemented for inbound internet requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use a dedicated privileged access workstation (PAW) to manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
+          <t>Session monitoring is implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2139,7 +2139,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Security (guest/VM)</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Enable Advanced Threat Detection (Microsoft Defender for Cloud aka ASC) for workloads running on Azure VMware Solution</t>
+          <t>Is DDoS standard protection enabled on ExR/VPN Gateway subnet in Azure</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Security (guest/VM)</t>
+          <t>Security (network)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
+          <t>Use a dedicated privileged access workstation (PAW) to manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
+          <t>Enable Advanced Threat Detection (Microsoft Defender for Cloud aka ASC) for workloads running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2265,7 +2265,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
+          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,7 +2307,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Ensure extended security update support is configured for workloads running on Azure VMware Solution (Azure VMware Solution is eligible for ESU)</t>
+          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2365,18 +2365,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Governance (platform)</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the appropriate VM template storage policy is used</t>
+          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2407,18 +2407,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Governance (platform)</t>
+          <t>Security (guest/VM)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
+          <t>Consider using extended security update support for workloads running on Azure VMware Solution (Azure VMware Solution is eligible for ESU)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
+          <t>Ensure that the appropriate vSAN Data redundancy method is used (RAID specification)</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
+          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have a policy around ESXi host density and efficiency, keeping in mind the lead time for requesting new nodes</t>
+          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Ensure a good cost management process is in place for Azure VMware Solution - Azure Cost Management can be used</t>
+          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2622,13 +2622,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Are Azure reserved instances used to optimize cost for using Azure VMware Solution</t>
+          <t>Ensure that you have a policy around ESXi host density and efficiency, keeping in mind the lead time for requesting new nodes</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2642,7 +2642,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
+          <t>Ensure a good cost management process is in place for Azure VMware Solution - Azure Cost Management can be used</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2700,18 +2700,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Governance (guest/VM)</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for Cloud for Azure VMware Solution guest VM workloads</t>
+          <t>Are Azure reserved instances used to optimize cost for using Azure VMware Solution</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Governance (guest/VM)</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Arc enabled servers to manage your Azure VMware Solution guest VM workloads</t>
+          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2767,7 +2767,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Governance (guest/VM)</t>
+          <t>Governance (platform)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>Ensure all required resource reside within the same Azure availability zone(s)</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
+          <t>Enable Microsoft Defender for Cloud for Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
+          <t>Use Azure Arc enabled servers to manage your Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2892,7 +2892,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2908,18 +2908,18 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender for Cloud for compliance monitoring of workloads running on Azure VMware Solution</t>
+          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Are the applicable compliance baselines added to Microsoft Defender for Cloud</t>
+          <t>Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -2975,7 +2975,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2991,18 +2991,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Compliance</t>
+          <t>Governance (guest/VM)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Was data residency evaluated when selecting Azure regions to use for Azure VMware Solution deployment</t>
+          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Are data processing implications (service provider / service consumer model) clear and documented</t>
+          <t>Use Microsoft Defender for Cloud for compliance monitoring of workloads running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3058,7 +3058,7 @@
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
+          <t>Are the applicable compliance baselines added to Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3099,7 +3099,7 @@
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3110,17 +3110,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Create warning alerts for critical thresholds for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
+          <t>Was data residency evaluated when selecting Azure regions to use for Azure VMware Solution deployment</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3140,7 +3140,7 @@
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3151,17 +3151,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Ensure critical alert is created to monitor if vSAN consumption is below 75% as this is a support threshold from VMware</t>
+          <t>Are data processing implications (service provider / service consumer model) clear and documented</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3181,7 +3181,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3192,23 +3192,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Compliance</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Ensure alerts are configured for Azure Service Health alerts and notifications</t>
+          <t>Consider using CMK (Customer Managed Key) for vSAN only if needed for compliance reason(s).</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3243,13 +3243,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure VMware Solution logging to be send to an Azure Storage account or Azure EventHub for processing</t>
+          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3284,13 +3284,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>If deep insight in VMware vSphere is required: Is vRealize Operations and/or vRealize Network Insights used in the solution?</t>
+          <t>Create warning alerts for critical thresholds for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning</t>
+          <t>Ensure critical alert is created to monitor if vSAN consumption is below 75% as this is a support threshold from VMware</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3361,18 +3361,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure vSphere content libraries are not placed on vSAN as vSAN is a finite resource</t>
+          <t>Ensure alerts are configured for Azure Service Health alerts and notifications</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3387,7 +3387,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
+          <t>Configure Azure VMware Solution logging to be send to an Azure Storage account or Azure EventHub for processing</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3445,18 +3445,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are hybrid managed using Azure Arc for Servers (Arc for Azure VMware Solution is in preview)</t>
+          <t>If deep insight in VMware vSphere is required: Is vRealize Operations and/or vRealize Network Insights used in the solution?</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3492,13 +3492,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
+          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3512,7 +3512,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Include workloads running on Azure VMware Solution in existing update management tooling or in Azure Update Management</t>
+          <t>Ensure vSphere content libraries are not placed on vSAN as vSAN is a finite resource</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
+          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3596,7 +3596,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3617,13 +3617,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>When ANF is used to extend storage for Azure VMware Solution, ensure it is used at the VM level only for now (ANF as NFS datastore is still in private preview)</t>
+          <t>Ensure workloads running on Azure VMware Solution are hybrid managed using Azure Arc for Servers (Arc for Azure VMware Solution is in preview)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are onboarded to Microsoft Defender for Cloud</t>
+          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3680,7 +3680,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3691,17 +3691,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
+          <t>Include workloads running on Azure VMware Solution in existing update management tooling or in Azure Update Management</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3722,7 +3722,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3733,17 +3733,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use VMware Site Recovery Manager when both sites are Azure VMware Solution</t>
+          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3764,7 +3764,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3775,17 +3775,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+          <t>Ensure workloads running on Azure VMware Solution are onboarded to Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3806,7 +3806,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3822,18 +3822,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use Automated recovery plans with either of the Disaster solutions, avoid manual tasks as much as possible</t>
+          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3848,7 +3848,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Use the geopolitical region pair as the secondary disaster recovery environment</t>
+          <t>Have all DR solutions been considered and a solution that is best for your business been decided upon? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3890,7 +3890,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -3911,13 +3911,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
+          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -3953,13 +3953,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Will ExpressRoute Global Reach be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or is routing done through network virtual appliances?</t>
+          <t>Use Automated recovery plans with either of the Disaster solutions, avoid manual tasks as much as possible</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3974,7 +3974,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -3990,12 +3990,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use MABS as your backup solution</t>
+          <t>Use the geopolitical region pair as the secondary disaster recovery environment</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4016,7 +4016,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4032,18 +4032,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Business Continuity</t>
+          <t>Disaster Recovery</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Preferably deploy MABS outside of the SDDC as native Azure IaaS</t>
+          <t>Will ExpressRoute Global Reach be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or is routing done through network virtual appliances?</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4121,13 +4121,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
+          <t>Have all Backup solutions been considered and a solution that is best for your business been decided upon? [ MABS/CommVault/Metallic.io/Veeam/�. ]</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4142,7 +4142,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4153,23 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Deployment strategy</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>For manual deployments, all configuration and deployments must be documented</t>
+          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4195,23 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Deployment strategy</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
+          <t>Deploy your backup solution outside of vSan, on Azure native components</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4237,17 +4237,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Automated Deployment</t>
+          <t>Business Continuity</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>For automated deployments, deploy a minimal private cloud and scale as needed</t>
+          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4268,7 +4268,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Automated Deployment</t>
+          <t>Deployment strategy</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>For automated deployments,  request or reserve quota prior to starting the deployment</t>
+          <t>For manual deployments, all configuration and deployments must be documented</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4310,7 +4310,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Automated Deployment</t>
+          <t>Deployment strategy</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>For automated deployment, ensure that relevant resource locks are created through the automation or through Azure Policy for proper governance</t>
+          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4352,7 +4352,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Automated Connectivity</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
+          <t>For automated deployments, deploy a minimal private cloud and scale as needed</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Automated Connectivity</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
+          <t>For automated deployments,  request or reserve quota prior to starting the deployment</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4436,7 +4436,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Automated Connectivity</t>
+          <t>Automated Deployment</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Define resource dependencies for serializing actions in IaC when many resources need to be deployed in/on Azure VMware Solution as Azure VMware Solution only supports a limited number of parallel operations.</t>
+          <t>For automated deployment, ensure that relevant resource locks are created through the automation or through Azure Policy for proper governance</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
+          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4536,18 +4536,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Automated Scale</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
+          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4562,7 +4562,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4578,18 +4578,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Automated Scale</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
+          <t>Define resource dependencies for serializing actions in IaC when many resources need to be deployed in/on Azure VMware Solution as Azure VMware Solution only supports a limited number of parallel operations.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Automated Scale</t>
+          <t>Automated Connectivity</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
+          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4646,7 +4646,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -4688,7 +4688,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
+          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -4730,7 +4730,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
+          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -4772,7 +4772,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -4781,271 +4781,719 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Automated Scale</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Automated Scale</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Automated Scale</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>When using MON, be aware of the limits of simulataneously configured VMs (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>When using MON, you cannot enable MON on more than 100 Network extensions</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>If using a VPN connection for migrations, adjust your MTU size accordingly.</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>For low connectivity regions connecting into Azure (500Mbps or less), considering deploying the HCX WAN optimization appliance</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Ensure that migrations are started from the on-premises appliance and NOT from the Cloud appliance (do NOT perform a reverse migration)</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Data Storage</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>When Azure Netapp Files is used to extend storage for Azure VMware Solution,consider using this as a VMware datastore instead of attaching directly to a VM.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Data Storage</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Ensure that a dedicated ExpressRoute Gateway is being used for external data storage solutions</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Data Storage</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Ensure that FastPath is enabled on the ExpressRoute Gateway that is being used for external data storage solutions</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Stretched Cluster</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>If using stretched cluster, ensure that your selected Disaster Recovery solution is supported by the vendor</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Stretched Cluster</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>If using stretched cluster, ensure that the SLA provided will meet your requirements</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Stretched Cluster</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>If using stretched cluster, ensure that both ExpressRoute circuits are connected to your connectivity hub.</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Stretched Cluster</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>If using stretched cluster, ensure that both ExpressRoute circuits have GlobalReach enabled.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Stretched Cluster</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>Have site disaster tolerance settings been properly considered and changed for your business if needed.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
@@ -8036,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F113" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
